--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Selp</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,185 +522,991 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>180.874633849219</v>
+        <v>4.094072</v>
       </c>
       <c r="H2">
-        <v>180.874633849219</v>
+        <v>12.282216</v>
       </c>
       <c r="I2">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="J2">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.65593378014908</v>
+        <v>17.90215733333334</v>
       </c>
       <c r="N2">
-        <v>7.65593378014908</v>
+        <v>53.70647200000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9729544377046332</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9729544377046332</v>
       </c>
       <c r="Q2">
-        <v>1384.764219258332</v>
+        <v>73.29272107799467</v>
       </c>
       <c r="R2">
-        <v>1384.764219258332</v>
+        <v>659.634489701952</v>
       </c>
       <c r="S2">
-        <v>0.8226037845311249</v>
+        <v>0.01431549078069383</v>
       </c>
       <c r="T2">
-        <v>0.8226037845311249</v>
+        <v>0.01431549078069383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.2214361999187</v>
+        <v>4.094072</v>
       </c>
       <c r="H3">
-        <v>10.2214361999187</v>
+        <v>12.282216</v>
       </c>
       <c r="I3">
-        <v>0.04648629784321118</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="J3">
-        <v>0.04648629784321118</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>7.65593378014908</v>
+        <v>0.01128333333333333</v>
       </c>
       <c r="N3">
-        <v>7.65593378014908</v>
+        <v>0.03385</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0006132316365204891</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.0006132316365204891</v>
       </c>
       <c r="Q3">
-        <v>78.25463868459622</v>
+        <v>0.04619477906666666</v>
       </c>
       <c r="R3">
-        <v>78.25463868459622</v>
+        <v>0.4157530116</v>
       </c>
       <c r="S3">
-        <v>0.04648629784321118</v>
+        <v>9.022736830050688E-06</v>
       </c>
       <c r="T3">
-        <v>0.04648629784321118</v>
+        <v>9.02273683005069E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>4.094072</v>
+      </c>
+      <c r="H4">
+        <v>12.282216</v>
+      </c>
+      <c r="I4">
+        <v>0.0147134235951136</v>
+      </c>
+      <c r="J4">
+        <v>0.0147134235951136</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.3789536666666666</v>
+      </c>
+      <c r="N4">
+        <v>1.136861</v>
+      </c>
+      <c r="O4">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="P4">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="Q4">
+        <v>1.551463595997333</v>
+      </c>
+      <c r="R4">
+        <v>13.963172363976</v>
+      </c>
+      <c r="S4">
+        <v>0.0003030309487547491</v>
+      </c>
+      <c r="T4">
+        <v>0.0003030309487547491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>4.094072</v>
+      </c>
+      <c r="H5">
+        <v>12.282216</v>
+      </c>
+      <c r="I5">
+        <v>0.0147134235951136</v>
+      </c>
+      <c r="J5">
+        <v>0.0147134235951136</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1073956666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.322187</v>
+      </c>
+      <c r="O5">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="P5">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="Q5">
+        <v>0.4396855918213333</v>
+      </c>
+      <c r="R5">
+        <v>3.957170326392</v>
+      </c>
+      <c r="S5">
+        <v>8.58791288349643E-05</v>
+      </c>
+      <c r="T5">
+        <v>8.587912883496433E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>28.784554439255</v>
-      </c>
-      <c r="H4">
-        <v>28.784554439255</v>
-      </c>
-      <c r="I4">
-        <v>0.1309099176256638</v>
-      </c>
-      <c r="J4">
-        <v>0.1309099176256638</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>7.65593378014908</v>
-      </c>
-      <c r="N4">
-        <v>7.65593378014908</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>220.3726426780325</v>
-      </c>
-      <c r="R4">
-        <v>220.3726426780325</v>
-      </c>
-      <c r="S4">
-        <v>0.1309099176256638</v>
-      </c>
-      <c r="T4">
-        <v>0.1309099176256638</v>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>181.0215506666667</v>
+      </c>
+      <c r="H6">
+        <v>543.064652</v>
+      </c>
+      <c r="I6">
+        <v>0.6505617768331834</v>
+      </c>
+      <c r="J6">
+        <v>0.6505617768331835</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>17.90215733333334</v>
+      </c>
+      <c r="N6">
+        <v>53.70647200000001</v>
+      </c>
+      <c r="O6">
+        <v>0.9729544377046332</v>
+      </c>
+      <c r="P6">
+        <v>0.9729544377046332</v>
+      </c>
+      <c r="Q6">
+        <v>3240.676280758639</v>
+      </c>
+      <c r="R6">
+        <v>29166.08652682775</v>
+      </c>
+      <c r="S6">
+        <v>0.632966967770857</v>
+      </c>
+      <c r="T6">
+        <v>0.6329669677708571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>181.0215506666667</v>
+      </c>
+      <c r="H7">
+        <v>543.064652</v>
+      </c>
+      <c r="I7">
+        <v>0.6505617768331834</v>
+      </c>
+      <c r="J7">
+        <v>0.6505617768331835</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01128333333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.03385</v>
+      </c>
+      <c r="O7">
+        <v>0.0006132316365204891</v>
+      </c>
+      <c r="P7">
+        <v>0.0006132316365204891</v>
+      </c>
+      <c r="Q7">
+        <v>2.042526496688889</v>
+      </c>
+      <c r="R7">
+        <v>18.3827384702</v>
+      </c>
+      <c r="S7">
+        <v>0.0003989450630650903</v>
+      </c>
+      <c r="T7">
+        <v>0.0003989450630650903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>181.0215506666667</v>
+      </c>
+      <c r="H8">
+        <v>543.064652</v>
+      </c>
+      <c r="I8">
+        <v>0.6505617768331834</v>
+      </c>
+      <c r="J8">
+        <v>0.6505617768331835</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.3789536666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.136861</v>
+      </c>
+      <c r="O8">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="P8">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="Q8">
+        <v>68.59878037081911</v>
+      </c>
+      <c r="R8">
+        <v>617.389023337372</v>
+      </c>
+      <c r="S8">
+        <v>0.01339867306768808</v>
+      </c>
+      <c r="T8">
+        <v>0.01339867306768808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>181.0215506666667</v>
+      </c>
+      <c r="H9">
+        <v>543.064652</v>
+      </c>
+      <c r="I9">
+        <v>0.6505617768331834</v>
+      </c>
+      <c r="J9">
+        <v>0.6505617768331835</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1073956666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.322187</v>
+      </c>
+      <c r="O9">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="P9">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="Q9">
+        <v>19.44093011488045</v>
+      </c>
+      <c r="R9">
+        <v>174.968371033924</v>
+      </c>
+      <c r="S9">
+        <v>0.003797190931573183</v>
+      </c>
+      <c r="T9">
+        <v>0.003797190931573184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>63.05609033333334</v>
+      </c>
+      <c r="H10">
+        <v>189.168271</v>
+      </c>
+      <c r="I10">
+        <v>0.2266132513854375</v>
+      </c>
+      <c r="J10">
+        <v>0.2266132513854376</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>17.90215733333334</v>
+      </c>
+      <c r="N10">
+        <v>53.70647200000001</v>
+      </c>
+      <c r="O10">
+        <v>0.9729544377046332</v>
+      </c>
+      <c r="P10">
+        <v>0.9729544377046332</v>
+      </c>
+      <c r="Q10">
+        <v>1128.840049972213</v>
+      </c>
+      <c r="R10">
+        <v>10159.56044974991</v>
+      </c>
+      <c r="S10">
+        <v>0.2204843685781371</v>
+      </c>
+      <c r="T10">
+        <v>0.2204843685781371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>63.05609033333334</v>
+      </c>
+      <c r="H11">
+        <v>189.168271</v>
+      </c>
+      <c r="I11">
+        <v>0.2266132513854375</v>
+      </c>
+      <c r="J11">
+        <v>0.2266132513854376</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01128333333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.03385</v>
+      </c>
+      <c r="O11">
+        <v>0.0006132316365204891</v>
+      </c>
+      <c r="P11">
+        <v>0.0006132316365204891</v>
+      </c>
+      <c r="Q11">
+        <v>0.7114828859277778</v>
+      </c>
+      <c r="R11">
+        <v>6.40334597335</v>
+      </c>
+      <c r="S11">
+        <v>0.0001389664150043208</v>
+      </c>
+      <c r="T11">
+        <v>0.0001389664150043209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>63.05609033333334</v>
+      </c>
+      <c r="H12">
+        <v>189.168271</v>
+      </c>
+      <c r="I12">
+        <v>0.2266132513854375</v>
+      </c>
+      <c r="J12">
+        <v>0.2266132513854376</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.3789536666666666</v>
+      </c>
+      <c r="N12">
+        <v>1.136861</v>
+      </c>
+      <c r="O12">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="P12">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="Q12">
+        <v>23.89533663748122</v>
+      </c>
+      <c r="R12">
+        <v>215.058029737331</v>
+      </c>
+      <c r="S12">
+        <v>0.004667222969814688</v>
+      </c>
+      <c r="T12">
+        <v>0.00466722296981469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>63.05609033333334</v>
+      </c>
+      <c r="H13">
+        <v>189.168271</v>
+      </c>
+      <c r="I13">
+        <v>0.2266132513854375</v>
+      </c>
+      <c r="J13">
+        <v>0.2266132513854376</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1073956666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.322187</v>
+      </c>
+      <c r="O13">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="P13">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="Q13">
+        <v>6.77195085874189</v>
+      </c>
+      <c r="R13">
+        <v>60.947557728677</v>
+      </c>
+      <c r="S13">
+        <v>0.001322693422481451</v>
+      </c>
+      <c r="T13">
+        <v>0.001322693422481452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>30.082493</v>
+      </c>
+      <c r="H14">
+        <v>90.247479</v>
+      </c>
+      <c r="I14">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="J14">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.90215733333334</v>
+      </c>
+      <c r="N14">
+        <v>53.70647200000001</v>
+      </c>
+      <c r="O14">
+        <v>0.9729544377046332</v>
+      </c>
+      <c r="P14">
+        <v>0.9729544377046332</v>
+      </c>
+      <c r="Q14">
+        <v>538.5415226648987</v>
+      </c>
+      <c r="R14">
+        <v>4846.873703984088</v>
+      </c>
+      <c r="S14">
+        <v>0.1051876105749451</v>
+      </c>
+      <c r="T14">
+        <v>0.1051876105749451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>30.082493</v>
+      </c>
+      <c r="H15">
+        <v>90.247479</v>
+      </c>
+      <c r="I15">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="J15">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01128333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.03385</v>
+      </c>
+      <c r="O15">
+        <v>0.0006132316365204891</v>
+      </c>
+      <c r="P15">
+        <v>0.0006132316365204891</v>
+      </c>
+      <c r="Q15">
+        <v>0.3394307960166666</v>
+      </c>
+      <c r="R15">
+        <v>3.05487716415</v>
+      </c>
+      <c r="S15">
+        <v>6.629742162102719E-05</v>
+      </c>
+      <c r="T15">
+        <v>6.629742162102721E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>30.082493</v>
+      </c>
+      <c r="H16">
+        <v>90.247479</v>
+      </c>
+      <c r="I16">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="J16">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.3789536666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.136861</v>
+      </c>
+      <c r="O16">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="P16">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="Q16">
+        <v>11.39987102482433</v>
+      </c>
+      <c r="R16">
+        <v>102.598839223419</v>
+      </c>
+      <c r="S16">
+        <v>0.00222661604258501</v>
+      </c>
+      <c r="T16">
+        <v>0.002226616042585011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.082493</v>
+      </c>
+      <c r="H17">
+        <v>90.247479</v>
+      </c>
+      <c r="I17">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="J17">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1073956666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.322187</v>
+      </c>
+      <c r="O17">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="P17">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="Q17">
+        <v>3.230729390730333</v>
+      </c>
+      <c r="R17">
+        <v>29.076564516573</v>
+      </c>
+      <c r="S17">
+        <v>0.0006310241471141475</v>
+      </c>
+      <c r="T17">
+        <v>0.0006310241471141476</v>
       </c>
     </row>
   </sheetData>
